--- a/erpnext-test-cases.xlsx
+++ b/erpnext-test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57246656b5eb889e/Desktop/erpnext-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C59A82D8-7FFF-43B5-9A3B-29A5AD851B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C59A82D8-7FFF-43B5-9A3B-29A5AD851B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0B16022-62D8-4A6D-8122-0F727D5003AC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C28A1B33-B86E-4D83-BADB-7F8B34476BEA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>TC_01</t>
   </si>
@@ -261,6 +261,9 @@
 3. Enter all valid data in all mandatory fields.
 4. Enter email id 
 5. click on save button</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,6 +911,9 @@
       <c r="E9" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="F9" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/erpnext-test-cases.xlsx
+++ b/erpnext-test-cases.xlsx
@@ -5,36 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57246656b5eb889e/Desktop/erpnext-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e3297d695c4b3c4/Desktop/erpnext-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C59A82D8-7FFF-43B5-9A3B-29A5AD851B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0B16022-62D8-4A6D-8122-0F727D5003AC}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{C59A82D8-7FFF-43B5-9A3B-29A5AD851B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81119B80-A5CE-4195-B0A4-5D9F678C9E8D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C28A1B33-B86E-4D83-BADB-7F8B34476BEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C28A1B33-B86E-4D83-BADB-7F8B34476BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="New Customer" sheetId="1" r:id="rId1"/>
+    <sheet name="Selling " sheetId="2" r:id="rId2"/>
+    <sheet name="CRM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>TC_01</t>
   </si>
@@ -127,13 +120,6 @@
   </si>
   <si>
     <t>Validate creating new customer by selecting all mandatory fields except customer name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Customer name = Null
-2. select any one customer type
-3. select any one customer group which is there in the dropdown
-4.select any one option in Territory field which is shown in the dropdown
-</t>
   </si>
   <si>
     <t xml:space="preserve">Error message ( missing values required - Customer name-) should be shown like a pop message
@@ -180,11 +166,6 @@
 4.click on save button</t>
   </si>
   <si>
-    <t xml:space="preserve">1. valid customer name
-2. select any on customer type
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Error message ( missing values required - Custome group and territory-) should be shown like a pop message
 </t>
   </si>
@@ -194,10 +175,6 @@
   </si>
   <si>
     <t xml:space="preserve">Successfully showing error message </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available
-</t>
   </si>
   <si>
     <t xml:space="preserve">Error message ( missing values required - customer name, Custome group and territory-) should be shown like a pop message
@@ -213,36 +190,12 @@
     <t>Validate Creating new customer by entering customer more 130 letters</t>
   </si>
   <si>
-    <t>1. customer name = more than 130 
-letters
-2. enter save button</t>
-  </si>
-  <si>
     <t>1.customer field should not be able to take
  more than 130 letters 
 2. Error message ( missing values required - Customer group and territory-) should be shown like a pop message</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Valid customer name
-2. select any one customer type
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Error message ( missing values required -Customer group and territory-) should be shown like a pop message
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Valid customer name
-2. select any one customer type
-3. select any one customer group which is there in the dropdown
-4.Select one option fromTerritory field 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Valid customer name
-2. select any one customer type
-3. select any one customer group which is there in the dropdown
-4.Territory field = Null 
 </t>
   </si>
   <si>
@@ -263,14 +216,261 @@
 5. click on save button</t>
   </si>
   <si>
-    <t>b</t>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Validate phone number fields</t>
+  </si>
+  <si>
+    <t>1. Select shortut customer module
+2. select add customer button
+3. Enter all valid data in all mandatory fields.
+4. Enter email id 
+5. Enter valid phone number
+6. click on save button</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify Customer shortcut module in home page</t>
+  </si>
+  <si>
+    <t>Validate creating new customer by entering only 
+customer name, email id, and phone number</t>
+  </si>
+  <si>
+    <t>1. Select shortcut customer module
+2. select add customer button
+3. Enter only customer name in 
+customer field 
+4. Enter valid email id
+5. Enter valid phone number
+6. Click on save button</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Validate creating new customer by entering only 
+customer name,customer group, email id, and phone number</t>
+  </si>
+  <si>
+    <t>1. Select shortcut customer module
+2. select add customer button
+3. Enter only customer name
+4. Select one customer group in dropdown
+4. Enter valid email id
+5. Enter valid phone number
+6. Click on save button</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message ( missing values required - territory-) should be shown like a pop message
+</t>
+  </si>
+  <si>
+    <t>Validate creating new customer by entering only 
+customer group,customer email id, and phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message ( missing values required - customer Name-) should be shown like a pop message
+</t>
+  </si>
+  <si>
+    <t>1. Select shortcut customer module
+2. select add customer button
+3. Select one customer group in dropdown
+4. Select any one option from territory field
+5. Enter valid email id
+6. Enter valid phone number
+7. Click on save button</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Validate creating new customer by entering only customer name,customer group,customer email id, and phone number</t>
+  </si>
+  <si>
+    <t>Tc_14</t>
+  </si>
+  <si>
+    <t>1. Select shortcut customer module
+2. select add customer button
+3. Enter valid name of the customer
+4. Select any one option from territory field 
+4. Enter valid email id
+5. Enter valid phone number
+6. Click on save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message ( missing values required -customer group-) should be shown like a pop message
+</t>
+  </si>
+  <si>
+    <t>Validate creating new customer by providing all the details data in all the fields which is there on the customer module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select shortut customer module
+2. select add customer button
+3. Enter all valid data in all mandatory fields.
+4. Enter email id 
+5. Enter valid phone number
+6. Enter valid address Line 1 and 2, Zipcode, city, state, and country
+7. click on save button
+</t>
+  </si>
+  <si>
+    <t>customer name = abcd
+customer type = company or individual
+customer group = Selectany one from dropdown
+Territory = Select any one from dropdown
+Email id = abcd@gmail.com
+Phone number = 9876543210
+Address line 1 = #456, 4th street
+Address line 2 = #23, 1st street
+Zipcode = 561234
+City = Bangalore
+State = Karnataka
+country = India</t>
+  </si>
+  <si>
+    <t>customer name = abcd
+customer type = company or individual
+Territory = Select any one from dropdown
+Email id = abcd@gmail.com
+Phone number = 9876543210</t>
+  </si>
+  <si>
+    <t>customer type = company or individual
+customer group = Selectany one from dropdown
+Territory = Select any one from dropdown
+Email id = abcd@gmail.com
+Phone number = 9876543210</t>
+  </si>
+  <si>
+    <t>customer name = abcd
+customer type = company or individual
+customer group = Selectany one from dropdown
+Email id = abcd@gmail.com
+Phone number = 9876543210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer name = abcd
+customer type = company or individual
+customer group = Selectany one from dropdown
+Territory = Select any one from dropdown
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer type = company or individual
+customer group = Selectany one from dropdown
+Territory = Select any one from dropdown
+</t>
+  </si>
+  <si>
+    <t>customer type = company or individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer name = abcd
+customer type = company or individual
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer name = abcd
+customer type = company or individual
+customer group = Selectany one from dropdown
+</t>
+  </si>
+  <si>
+    <t>customer name = abcd
+customer type = company or individual
+customer group = Selectany one from dropdown
+Territory = Select any one from dropdown
+Email id = abcd@gmail.com
+Phone number = 9876543210</t>
+  </si>
+  <si>
+    <t>customer name = abcd
+customer type = company or individual
+customer group = Selectany one from dropdown
+Territory = Select any one from dropdown
+Email id = abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>customer name = abcd
+customer type = company or individual
+Email id = abcd@gmail.com
+Phone number = 9876543210</t>
+  </si>
+  <si>
+    <t>Verify Selling module</t>
+  </si>
+  <si>
+    <t>http://erpnext-test.localhost:8000/app/</t>
+  </si>
+  <si>
+    <t>1. Select selling module
+2. Select sales order 
+3. Click on Add sales order button
+4. In customer field, the list of all created customers should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate customer list display when creating
+sales order  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer list should be shown in new sales order </t>
+  </si>
+  <si>
+    <t>Successfully customer list is displayed in customer field in sales order module</t>
+  </si>
+  <si>
+    <t>Verify CRM Module</t>
+  </si>
+  <si>
+    <t>http://erpnext-test.localhost:8000/app/crm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate customer list is showing in customer (Report &amp; Masters) </t>
+  </si>
+  <si>
+    <t>1. Select customer from report and masters</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>Customer list should be shown in customer
+ (report and masters)</t>
+  </si>
+  <si>
+    <t>Succesfully Customer list is showed in the customer (report &amp; masters) module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate customer list is showing in shortcuts customer module </t>
+  </si>
+  <si>
+    <t>1. Select customer from shortcuts</t>
+  </si>
+  <si>
+    <t>Customer list should be shown in shorcuts customer module</t>
+  </si>
+  <si>
+    <t>Succesfully Customer list is showed in the customer module from shortcuts</t>
+  </si>
+  <si>
+    <t>TC_02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +485,14 @@
       <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -304,10 +512,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,8 +548,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,6 +570,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DA940A-6E09-4853-861A-7970495423BF}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +890,7 @@
     <col min="3" max="3" width="47.77734375" customWidth="1"/>
     <col min="4" max="4" width="34.21875" customWidth="1"/>
     <col min="5" max="5" width="29.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="36.21875" customWidth="1"/>
     <col min="7" max="7" width="35.5546875" customWidth="1"/>
     <col min="8" max="8" width="34.77734375" customWidth="1"/>
     <col min="9" max="9" width="15.109375" customWidth="1"/>
@@ -727,19 +951,19 @@
         <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -753,16 +977,16 @@
         <v>28</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -779,16 +1003,16 @@
         <v>28</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -805,16 +1029,16 @@
         <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
@@ -825,22 +1049,22 @@
         <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -857,16 +1081,16 @@
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -883,39 +1107,421 @@
         <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>56</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="198.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C383E7E-DDBB-46E7-8731-2A043BB75A33}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{14838D90-B863-4B17-A45D-3E2DC300061D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16EDFDA-7A7D-4DF0-9DB6-C76EF45D8C2D}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36.77734375" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{907937AF-BF97-4F74-9D0B-09141AD7E117}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{1AA6D5D7-B8D0-416D-9448-30C5A3ADF55B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>